--- a/src/assets/SectorExample.xlsx
+++ b/src/assets/SectorExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ECA10C-4AAF-4A11-9C49-E429CD9E72C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79AA57-8C32-44EB-A7E0-03E83B2160EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Stocks</t>
   </si>
@@ -34,65 +34,74 @@
     <t>Monthly average Data</t>
   </si>
   <si>
-    <t>NiftyAuto</t>
-  </si>
-  <si>
-    <t>NiftyBank</t>
-  </si>
-  <si>
-    <t>NiftyFinService</t>
-  </si>
-  <si>
-    <t>NIFTYFINSRV2550</t>
-  </si>
-  <si>
-    <t>NiftyFinancialServicesEx-Bank</t>
-  </si>
-  <si>
-    <t>NiftyFMCG</t>
-  </si>
-  <si>
-    <t>NIFTYHEALTHCARE</t>
-  </si>
-  <si>
-    <t>NiftyIT</t>
-  </si>
-  <si>
-    <t>NiftyMedia</t>
-  </si>
-  <si>
-    <t>NiftyMetal</t>
-  </si>
-  <si>
-    <t>NiftyPharma</t>
-  </si>
-  <si>
-    <t>NiftyPvtBank</t>
-  </si>
-  <si>
-    <t>NiftyPSUBank</t>
-  </si>
-  <si>
-    <t>NiftyRealty</t>
-  </si>
-  <si>
-    <t>NIFTYCONSRDURBL</t>
-  </si>
-  <si>
-    <t>NiftyMidSmallFinancialServices</t>
-  </si>
-  <si>
-    <t>NiftyMidSmallHealthcare</t>
-  </si>
-  <si>
-    <t>NiftyMidSmallITTelecom</t>
+    <t>NFTAUTO</t>
+  </si>
+  <si>
+    <t>NFTBANK</t>
+  </si>
+  <si>
+    <t>NFTFINSERV</t>
+  </si>
+  <si>
+    <t>NFTFINSERV25/50</t>
+  </si>
+  <si>
+    <t>NFTFINSERVEB</t>
+  </si>
+  <si>
+    <t>NFTFMCG</t>
+  </si>
+  <si>
+    <t>NFTHLTC</t>
+  </si>
+  <si>
+    <t>NFTIT</t>
+  </si>
+  <si>
+    <t>NFTMEDIA</t>
+  </si>
+  <si>
+    <t>NFTMETAL</t>
+  </si>
+  <si>
+    <t>NFTPHARMA</t>
+  </si>
+  <si>
+    <t>NFTPVTB</t>
+  </si>
+  <si>
+    <t>NFTPSUB</t>
+  </si>
+  <si>
+    <t>NFTREAL</t>
+  </si>
+  <si>
+    <t>NFTCD</t>
+  </si>
+  <si>
+    <t>NFTOG</t>
+  </si>
+  <si>
+    <t>NFTMSFS</t>
+  </si>
+  <si>
+    <t>NFTMSHC</t>
+  </si>
+  <si>
+    <t>NFTMSITTEL</t>
+  </si>
+  <si>
+    <t>NFT50USD</t>
+  </si>
+  <si>
+    <t>NFTVIX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -115,6 +124,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -147,14 +162,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,10 +419,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -386,7 +432,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -396,170 +442,195 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>0.21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>0.24</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>0.08</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>0.05</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>0.03</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>0.2</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>0.31</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>0.09</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>0.3</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>0.51</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>0.42</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>0.42</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>0.13</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>0.42</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>0.2</v>
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>0.22</v>
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>0.62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/SectorExample.xlsx
+++ b/src/assets/SectorExample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\admin_vsfintech\adminpanel\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79AA57-8C32-44EB-A7E0-03E83B2160EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C54EFD-CA70-4552-8F30-FFF1FFF7D14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,9 +43,6 @@
     <t>NFTFINSERV</t>
   </si>
   <si>
-    <t>NFTFINSERV25/50</t>
-  </si>
-  <si>
     <t>NFTFINSERVEB</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>NFTVIX</t>
+  </si>
+  <si>
+    <t>NFTFINSERV25_50</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -473,7 +473,7 @@
     </row>
     <row r="5" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3">
         <v>0.05</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="6" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3">
         <v>0.03</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="7" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3">
         <v>0.2</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <v>0.31</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="9" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3">
         <v>0.09</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="10" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>0.3</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="11" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>0.51</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="12" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>0.42</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="13" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3">
         <v>0.42</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="14" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
         <v>0.13</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="15" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3">
         <v>0.42</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="16" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="3">
         <v>0.2</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="17" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3">
         <v>0.22</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3">
         <v>0.17</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>0.62</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="3">
         <v>0.13</v>
@@ -614,7 +614,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3">
         <v>0.42</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="3">
         <v>0.2</v>
